--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1295.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1295.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8916672971052396</v>
+        <v>1.121747374534607</v>
       </c>
       <c r="B1">
-        <v>1.884940787024408</v>
+        <v>2.267987012863159</v>
       </c>
       <c r="C1">
-        <v>5.652799056419649</v>
+        <v>10.37368297576904</v>
       </c>
       <c r="D1">
-        <v>2.825367365401792</v>
+        <v>1.848957538604736</v>
       </c>
       <c r="E1">
-        <v>1.38177531493876</v>
+        <v>1.28792417049408</v>
       </c>
     </row>
   </sheetData>
